--- a/my_book.xlsx
+++ b/my_book.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:F3"/>
+  <dimension ref="A3:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,32 +424,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Муж скинул какую-то программу</t>
+          <t>ghjbb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Пока не понимаю что делать</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Прикольно</t>
+          <t>wecfs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Никаких</t>
+          <t>lqwejoqih</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Чувствую пельмени, которые съела</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Отличное</t>
+          <t>zjhxcvkuvy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>qwefd</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ewfvscv</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asdqweo</t>
         </is>
       </c>
     </row>

--- a/my_book.xlsx
+++ b/my_book.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:E4"/>
+  <dimension ref="A3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,44 +424,71 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ghjbb</t>
+          <t>hhfud</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sdfsdf</t>
+          <t>lsdiufoiuer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>wecfs</t>
+          <t>svkjwebofj</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>lqwejoqih</t>
+          <t>wefwef</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>zjhxcvkuvy</t>
+          <t>wef</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>qwefd</t>
+          <t>wefq</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ewfvscv</t>
+          <t>sljv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>asdqweo</t>
+          <t>wpreojpivx</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>w;jev</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/.mnopw3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>😓</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>^)</t>
         </is>
       </c>
     </row>
